--- a/user-data/fdi-percent-gdp/fdi-percent-gdp.xlsx
+++ b/user-data/fdi-percent-gdp/fdi-percent-gdp.xlsx
@@ -1360,7 +1360,7 @@
     <t xml:space="preserve">Units of measure: percent</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 73</t>
+    <t xml:space="preserve">Source: 74</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>

--- a/user-data/fdi-percent-gdp/fdi-percent-gdp.xlsx
+++ b/user-data/fdi-percent-gdp/fdi-percent-gdp.xlsx
@@ -1360,7 +1360,7 @@
     <t xml:space="preserve">Units of measure: percent</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 74</t>
+    <t xml:space="preserve">Source: 76</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>

--- a/user-data/fdi-percent-gdp/fdi-percent-gdp.xlsx
+++ b/user-data/fdi-percent-gdp/fdi-percent-gdp.xlsx
@@ -1360,7 +1360,7 @@
     <t xml:space="preserve">Units of measure: percent</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 73</t>
+    <t xml:space="preserve">Source: 76</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>

--- a/user-data/fdi-percent-gdp/fdi-percent-gdp.xlsx
+++ b/user-data/fdi-percent-gdp/fdi-percent-gdp.xlsx
@@ -1360,7 +1360,7 @@
     <t xml:space="preserve">Units of measure: percent</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 76</t>
+    <t xml:space="preserve">Source: 75</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>
